--- a/Ticket.xlsx
+++ b/Ticket.xlsx
@@ -8,26 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Documents\NetBeansProjects\new_mizan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED87B2B5-FB90-416E-A496-E945796A3C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487C59A5-BCB7-4756-977A-301EA97A6652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{998E887F-8D08-4341-855F-DAC69F4683CD}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -61,7 +52,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +75,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -93,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -162,15 +160,6 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -185,11 +174,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -197,17 +183,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,127 +511,125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDCB5B7-49DB-4C9A-A401-AF92C8795B3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" ht="30.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="5" t="s">
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="30.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="5" t="s">
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" ht="30.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="5" t="s">
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" ht="30.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="5" t="s">
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" ht="30.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="5" t="s">
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="30.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5" t="s">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-    </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="14">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.38541666666666669" top="0.47" bottom="0.62" header="0.18" footer="0.22"/>
-  <pageSetup paperSize="264" scale="98" fitToWidth="0" orientation="portrait" verticalDpi="203" r:id="rId1"/>
+  <pageMargins left="0.21" right="0.11" top="0.3" bottom="0.45" header="0.04" footer="0.04"/>
+  <pageSetup paperSize="258" scale="91" orientation="portrait" verticalDpi="203" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;14الصفا و المروه للغزل و النسيج</oddHeader>
-    <oddFooter>&amp;C&amp;"-,Bold"&amp;12وجيه عماره
+    <oddFooter>&amp;C&amp;"-,Bold"&amp;14وجيه عماره
 ٠١١٤٨٠٥٥٥٥٨</oddFooter>
   </headerFooter>
 </worksheet>
